--- a/Supplemental_Files/SF15_ALS_all_HRs.xlsx
+++ b/Supplemental_Files/SF15_ALS_all_HRs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferwilson/Documents/network_drug_classes_als/Supplemental_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8524DCD8-5C57-2B43-A720-E9BB9E96E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A7E614-EAD7-9F4F-B3AD-E7FD1B67E1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4240" yWindow="39580" windowWidth="27280" windowHeight="17580" xr2:uid="{3216DBA5-67A8-1141-B26B-5B5CEB0DAF30}"/>
+    <workbookView xWindow="12860" yWindow="500" windowWidth="22100" windowHeight="11460" xr2:uid="{3216DBA5-67A8-1141-B26B-5B5CEB0DAF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,18 +135,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2538,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47672B78-85ED-AA46-B747-F719D436DF11}">
   <dimension ref="C2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2984,13 +2978,13 @@
         <v>0.82330000000000003</v>
       </c>
       <c r="K35" s="8">
-        <v>1.55</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="L35" s="8">
-        <v>1.4890000000000001</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="M35" s="8">
-        <v>1.6160000000000001</v>
+        <v>0.82769999999999999</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.2">
